--- a/biology/Zoologie/Euscorpius_calabriae/Euscorpius_calabriae.xlsx
+++ b/biology/Zoologie/Euscorpius_calabriae/Euscorpius_calabriae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euscorpius calabriae est une espèce de scorpions de la famille des Euscorpiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Italie[1]. Elle se rencontre en Calabre et dans le Sud du Basilicate.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Italie. Elle se rencontre en Calabre et dans le Sud du Basilicate.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Euscorpius carpathicus calabriae par Caporiacco en 1950. Elle est placée en synonymie avec Euscorpius sicanus par Fet, Soleglad, Gantenbein, Vignoli, Salomone, Fet et Schembri en 2003[2]. Elle est relevée de sa synonymie et élevée au rang d'espèce par Tropea en 2017[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Euscorpius carpathicus calabriae par Caporiacco en 1950. Elle est placée en synonymie avec Euscorpius sicanus par Fet, Soleglad, Gantenbein, Vignoli, Salomone, Fet et Schembri en 2003. Elle est relevée de sa synonymie et élevée au rang d'espèce par Tropea en 2017.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, la Calabre.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Caporiacco, 1950 : Le specie e sottospecie del genere Euscorpius viventi in Italia ed in alcune zone confinanti. Atti della Accademia nazionale dei Lincei, Roma, sér. 8, vol. 2, no 4, p. 159-230.</t>
         </is>
